--- a/team_results/kookoo/xlsx_kookoo_1_played_games_data.xlsx
+++ b/team_results/kookoo/xlsx_kookoo_1_played_games_data.xlsx
@@ -1424,7 +1424,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>205</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>206</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>208</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>251</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>278</v>

--- a/team_results/kookoo/xlsx_kookoo_1_played_games_data.xlsx
+++ b/team_results/kookoo/xlsx_kookoo_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>205</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
         <v>206</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
         <v>233</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
         <v>240</v>
@@ -1767,28 +1767,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1801,32 +1801,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -1835,32 +1835,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2022-01-29</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>saipa</t>
         </is>
       </c>
     </row>
@@ -1869,32 +1869,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -1903,32 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
@@ -1937,32 +1937,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-09</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="F45" t="n">
         <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -1971,32 +1971,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
@@ -2005,11 +2005,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2019,18 +2019,18 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>kalpa</t>
         </is>
       </c>
     </row>
@@ -2039,30 +2039,98 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>375</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-02-19</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>assat</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>393</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>kookoo</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>lukko</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="F49" t="n">
+        <v>3</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>403</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>kookoo</t>
         </is>
